--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTA PROCESO OK" sheetId="21" r:id="rId1"/>
     <sheet name="XURTEP ABORDO" sheetId="2" r:id="rId2"/>
     <sheet name="XURTEP DESCANSO" sheetId="20" r:id="rId3"/>
     <sheet name="ASIMILADOS" sheetId="19" r:id="rId4"/>
-    <sheet name="RESUMEN" sheetId="3" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="22" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="23" r:id="rId5"/>
+    <sheet name="RESUMEN" sheetId="3" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PLANTA PROCESO OK'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">RESUMEN!$C$6:$C$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">RESUMEN!$C$6:$C$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'XURTEP ABORDO'!$A$11:$B$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'XURTEP DESCANSO'!$A$11:$B$11</definedName>
     <definedName name="lista_puesto">[1]puestos!$A$5:$A$19</definedName>
@@ -1874,11 +1874,11 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="AC11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1953,9 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1989,6 +1992,9 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2025,6 +2031,9 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2061,6 +2070,9 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2097,6 +2109,9 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2133,6 +2148,9 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2169,6 +2187,9 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
@@ -2205,6 +2226,9 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
@@ -3040,6 +3064,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3126,16 +3162,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTA PROCESO OK" sheetId="21" r:id="rId1"/>
@@ -764,7 +764,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -778,12 +778,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -810,7 +804,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -863,6 +856,15 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="25" fillId="10" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,16 +1337,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1858813</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>2037406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1374,8 +1376,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="390525" y="257175"/>
-          <a:ext cx="2230288" cy="809625"/>
+          <a:off x="1142999" y="621508"/>
+          <a:ext cx="1656407" cy="604836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,16 +1416,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>77638</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>125262</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,8 +1455,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="390525" y="257175"/>
-          <a:ext cx="2239813" cy="809625"/>
+          <a:off x="762000" y="515149"/>
+          <a:ext cx="2006450" cy="735008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,37 +1885,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="32" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11" style="26" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="26" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="17" style="26" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="26" customWidth="1"/>
-    <col min="14" max="16" width="15.140625" style="26" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="26" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" style="26" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="26" customWidth="1"/>
-    <col min="20" max="21" width="15.42578125" style="26" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="26" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="26" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="26" customWidth="1"/>
-    <col min="25" max="28" width="15.42578125" style="26" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="26" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" style="26" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="26" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" style="26" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="26" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="26" customWidth="1"/>
-    <col min="35" max="37" width="11.42578125" style="26"/>
-    <col min="38" max="38" width="11.42578125" style="22"/>
-    <col min="39" max="39" width="16" style="22" customWidth="1"/>
-    <col min="40" max="16384" width="11.42578125" style="26"/>
+    <col min="1" max="1" width="13.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="32" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11" style="23" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="23" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17" style="23" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="23" customWidth="1"/>
+    <col min="14" max="16" width="15.140625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="23" customWidth="1"/>
+    <col min="20" max="21" width="15.42578125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="23" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="23" customWidth="1"/>
+    <col min="25" max="28" width="15.42578125" style="23" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="23" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" style="23" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="23" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" style="23" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="23" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="23" customWidth="1"/>
+    <col min="35" max="37" width="11.42578125" style="23"/>
+    <col min="38" max="38" width="11.42578125" style="19"/>
+    <col min="39" max="39" width="16" style="19" customWidth="1"/>
+    <col min="40" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -2183,7 +2185,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="20"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -2192,7 +2194,7 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -2231,148 +2233,148 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="40" t="s">
+      <c r="R9" s="38"/>
+      <c r="S9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="40" t="s">
+      <c r="U9" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40" t="s">
+      <c r="V9" s="37"/>
+      <c r="W9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="X9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="48" t="s">
+      <c r="Z9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="44" t="s">
+      <c r="AA9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="44" t="s">
+      <c r="AB9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AC9" s="50" t="s">
+      <c r="AC9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AD9" s="46" t="s">
+      <c r="AD9" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AE9" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="40" t="s">
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AJ9" s="42" t="s">
+      <c r="AJ9" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AK9" s="39" t="s">
+      <c r="AK9" s="36" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AG10" s="40" t="s">
+      <c r="AG10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="40"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="39"/>
+      <c r="AH10" s="37"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2395,34 +2397,34 @@
   </sheetPr>
   <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R12" sqref="A12:XFD30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="17" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="36.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="25" width="11.42578125" style="26" customWidth="1"/>
+    <col min="21" max="25" width="11.42578125" style="23" customWidth="1"/>
     <col min="26" max="26" width="15.140625" customWidth="1"/>
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="10" customWidth="1"/>
     <col min="29" max="29" width="11.42578125" customWidth="1"/>
     <col min="30" max="30" width="9.42578125" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="12" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="26" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="12" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="26" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="12" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" style="23" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="10" customWidth="1"/>
+    <col min="34" max="35" width="11.42578125" style="23" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="10" customWidth="1"/>
     <col min="37" max="37" width="11.42578125" customWidth="1"/>
     <col min="39" max="42" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="0" hidden="1" customWidth="1"/>
@@ -2431,258 +2433,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="2" spans="1:42" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
     </row>
-    <row r="4" spans="1:42" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="58" t="s">
+    <row r="4" spans="1:42" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:42" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
+    <row r="5" spans="1:42" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:42" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
+    <row r="6" spans="1:42" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="H9" s="8"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
       <c r="E10" s="7"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
     </row>
     <row r="11" spans="1:42" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="38" t="s">
+      <c r="Y11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="18" t="s">
+      <c r="Z11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AA11" s="17" t="s">
+      <c r="AA11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="17" t="s">
+      <c r="AC11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AD11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE11" s="17" t="s">
+      <c r="AE11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AG11" s="17" t="s">
+      <c r="AG11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="32" t="s">
+      <c r="AH11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="17" t="s">
+      <c r="AI11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AJ11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="20" t="s">
+      <c r="AK11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AM11" s="18" t="s">
+      <c r="AM11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AN11" s="18" t="s">
+      <c r="AN11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AO11" s="18" t="s">
+      <c r="AO11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="18" t="s">
+      <c r="AP11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2716,256 +2820,452 @@
   </sheetPr>
   <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD28"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="26" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="26" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="26" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="26" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="26" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="26" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="26" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="26" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="26" customWidth="1"/>
-    <col min="15" max="25" width="11.42578125" style="22" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="22" customWidth="1"/>
-    <col min="27" max="28" width="12.85546875" style="22" customWidth="1"/>
-    <col min="29" max="33" width="11.42578125" style="22" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" style="22" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="22" customWidth="1"/>
-    <col min="36" max="37" width="11.42578125" style="26" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="26"/>
-    <col min="39" max="42" width="11.42578125" style="26" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="0" style="26" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="26" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="0" style="26" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="11.42578125" style="26"/>
+    <col min="1" max="1" width="9.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="23" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="23" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="23" customWidth="1"/>
+    <col min="12" max="14" width="11.42578125" style="23" customWidth="1"/>
+    <col min="15" max="25" width="11.42578125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="19" customWidth="1"/>
+    <col min="27" max="28" width="12.85546875" style="19" customWidth="1"/>
+    <col min="29" max="33" width="11.42578125" style="19" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" style="19" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="19" customWidth="1"/>
+    <col min="36" max="37" width="11.42578125" style="23" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="23"/>
+    <col min="39" max="42" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="46" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
     </row>
     <row r="2" spans="1:42" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="13"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="E10" s="33"/>
+      <c r="A10" s="43"/>
+      <c r="E10" s="30"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="1:42" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="36" t="s">
+      <c r="U11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="36" t="s">
+      <c r="V11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="36" t="s">
+      <c r="W11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="36" t="s">
+      <c r="Y11" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="36" t="s">
+      <c r="Z11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AA11" s="35" t="s">
+      <c r="AA11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AB11" s="35" t="s">
+      <c r="AB11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="35" t="s">
+      <c r="AC11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AD11" s="35" t="s">
+      <c r="AD11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AE11" s="35" t="s">
+      <c r="AE11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AF11" s="35" t="s">
+      <c r="AF11" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AG11" s="35" t="s">
+      <c r="AG11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="37" t="s">
+      <c r="AH11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="35" t="s">
+      <c r="AI11" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AJ11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="20" t="s">
+      <c r="AK11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AM11" s="18" t="s">
+      <c r="AM11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AN11" s="18" t="s">
+      <c r="AN11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AO11" s="18" t="s">
+      <c r="AO11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="18" t="s">
+      <c r="AP11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3012,44 +3312,44 @@
     <col min="14" max="14" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="43"/>
+      <c r="M1" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3066,7 +3366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3081,7 +3381,7 @@
   </sheetPr>
   <dimension ref="B6:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3089,10 +3389,10 @@
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="23" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
@@ -3105,40 +3405,40 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
     </row>
   </sheetData>
   <sortState ref="B43:N65">

--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTA PROCESO OK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>COMPROBACION COSTO SOCIAL</t>
+  </si>
+  <si>
+    <t>AJUSTE INFONAVIT</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1129,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1203,7 @@
         <xdr:cNvPr id="4" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1277,7 @@
         <xdr:cNvPr id="5" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1356,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1435,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,8 +1879,8 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="AC11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
@@ -2395,10 +2398,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,18 +2424,19 @@
     <col min="29" max="29" width="11.42578125" customWidth="1"/>
     <col min="30" max="30" width="9.42578125" customWidth="1"/>
     <col min="31" max="31" width="11.42578125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="23" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="10" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="23" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="10" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" customWidth="1"/>
-    <col min="39" max="42" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="23" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" style="23" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="10" customWidth="1"/>
+    <col min="35" max="36" width="11.42578125" style="23" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="10" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" customWidth="1"/>
+    <col min="40" max="43" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="54" t="s">
         <v>28</v>
@@ -2454,7 +2458,7 @@
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
     </row>
-    <row r="2" spans="1:42" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="56" t="s">
         <v>50</v>
@@ -2476,7 +2480,7 @@
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="58" t="s">
         <v>29</v>
@@ -2499,7 +2503,7 @@
       <c r="S3" s="43"/>
       <c r="T3" s="43"/>
     </row>
-    <row r="4" spans="1:42" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -2527,10 +2531,11 @@
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
       <c r="AF4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="AG4" s="23"/>
       <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
     </row>
-    <row r="5" spans="1:42" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
@@ -2556,10 +2561,11 @@
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="AF5" s="23"/>
-      <c r="AH5" s="23"/>
+      <c r="AG5" s="23"/>
       <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
     </row>
-    <row r="6" spans="1:42" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -2585,10 +2591,11 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="AF6" s="23"/>
-      <c r="AH6" s="23"/>
+      <c r="AG6" s="23"/>
       <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="59" t="s">
         <v>80</v>
@@ -2611,7 +2618,7 @@
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -2631,7 +2638,7 @@
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -2651,7 +2658,7 @@
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="E10" s="7"/>
       <c r="K10" s="43"/>
@@ -2665,7 +2672,7 @@
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
     </row>
-    <row r="11" spans="1:42" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -2763,34 +2770,37 @@
         <v>75</v>
       </c>
       <c r="AG11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="29" t="s">
+      <c r="AI11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="15" t="s">
+      <c r="AJ11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="16" t="s">
+      <c r="AK11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="18" t="s">
+      <c r="AL11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AM11" s="16" t="s">
+      <c r="AN11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AN11" s="16" t="s">
+      <c r="AO11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AO11" s="16" t="s">
+      <c r="AP11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="16" t="s">
+      <c r="AQ11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A13:AM26">
     <sortCondition ref="B13:B26"/>
@@ -2818,10 +2828,10 @@
   <sheetPr codeName="Hoja11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:AC10"/>
+    <sheetView topLeftCell="K4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,19 +2851,23 @@
     <col min="15" max="25" width="11.42578125" style="19" customWidth="1"/>
     <col min="26" max="26" width="15.140625" style="19" customWidth="1"/>
     <col min="27" max="28" width="12.85546875" style="19" customWidth="1"/>
-    <col min="29" max="33" width="11.42578125" style="19" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" style="19" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="19" customWidth="1"/>
-    <col min="36" max="37" width="11.42578125" style="23" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="23"/>
-    <col min="39" max="42" width="11.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="0" style="23" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="0" style="23" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="11.42578125" style="23"/>
+    <col min="29" max="30" width="11.42578125" style="19" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" style="19" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="19" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" style="23" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" style="19" customWidth="1"/>
+    <col min="35" max="35" width="13.28515625" style="19" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="19" customWidth="1"/>
+    <col min="37" max="38" width="11.42578125" style="23" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" style="23"/>
+    <col min="40" max="43" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="47" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="54" t="s">
         <v>28</v>
@@ -2884,7 +2898,7 @@
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
     </row>
-    <row r="2" spans="1:42" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="56" t="s">
         <v>50</v>
@@ -2915,7 +2929,7 @@
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
     </row>
-    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="58" t="s">
         <v>29</v>
@@ -2947,7 +2961,7 @@
       <c r="AB3" s="44"/>
       <c r="AC3" s="44"/>
     </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
@@ -2979,7 +2993,7 @@
       <c r="AB4" s="44"/>
       <c r="AC4" s="44"/>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="31"/>
       <c r="C5" s="30"/>
@@ -3009,7 +3023,7 @@
       <c r="AB5" s="44"/>
       <c r="AC5" s="44"/>
     </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="31"/>
       <c r="C6" s="30"/>
@@ -3039,7 +3053,7 @@
       <c r="AB6" s="44"/>
       <c r="AC6" s="44"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="59" t="s">
         <v>80</v>
@@ -3071,7 +3085,7 @@
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -3096,7 +3110,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -3121,7 +3135,7 @@
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="E10" s="30"/>
       <c r="K10" s="43"/>
@@ -3144,7 +3158,7 @@
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
     </row>
-    <row r="11" spans="1:42" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3241,35 +3255,38 @@
       <c r="AF11" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="AG11" s="32" t="s">
+      <c r="AG11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="34" t="s">
+      <c r="AI11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="32" t="s">
+      <c r="AJ11" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="16" t="s">
+      <c r="AK11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AK11" s="18" t="s">
+      <c r="AL11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AM11" s="16" t="s">
+      <c r="AN11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AN11" s="16" t="s">
+      <c r="AO11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AO11" s="16" t="s">
+      <c r="AP11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" s="16" t="s">
+      <c r="AQ11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:H1"/>
@@ -3381,8 +3398,8 @@
   </sheetPr>
   <dimension ref="B6:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -284,10 +284,6 @@
     <t>Periodo MENSUAL del 01/09/2018 al 30/09/2018</t>
   </si>
   <si>
-    <t>RET INFONAVIT
-SEPT</t>
-  </si>
-  <si>
     <t>TIPO DE
  NOMINA</t>
   </si>
@@ -296,6 +292,9 @@
   </si>
   <si>
     <t>AJUSTE INFONAVIT</t>
+  </si>
+  <si>
+    <t>RET INFONAVIT</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1054,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1128,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1202,7 @@
         <xdr:cNvPr id="4" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1276,7 @@
         <xdr:cNvPr id="5" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1355,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1434,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,10 +1879,10 @@
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>4</v>
@@ -2270,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>74</v>
@@ -2320,7 +2319,7 @@
         <v>69</v>
       </c>
       <c r="AD9" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE9" s="37" t="s">
         <v>1</v>
@@ -2770,7 +2769,7 @@
         <v>75</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" s="15" t="s">
         <v>43</v>
@@ -3256,7 +3255,7 @@
         <v>75</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" s="32" t="s">
         <v>43</v>

--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTA PROCESO OK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>RET INFONAVIT</t>
+  </si>
+  <si>
+    <t>TOTAL COSTO SOCIAL</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1881,7 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -2397,10 +2400,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,13 +2432,13 @@
     <col min="35" max="36" width="11.42578125" style="23" customWidth="1"/>
     <col min="37" max="37" width="11.42578125" style="10" customWidth="1"/>
     <col min="38" max="38" width="11.42578125" customWidth="1"/>
-    <col min="40" max="43" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="0" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="45" max="46" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="54" t="s">
         <v>28</v>
@@ -2457,7 +2460,7 @@
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
     </row>
-    <row r="2" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="56" t="s">
         <v>50</v>
@@ -2479,7 +2482,7 @@
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="58" t="s">
         <v>29</v>
@@ -2502,7 +2505,7 @@
       <c r="S3" s="43"/>
       <c r="T3" s="43"/>
     </row>
-    <row r="4" spans="1:43" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -2534,7 +2537,7 @@
       <c r="AI4" s="23"/>
       <c r="AJ4" s="23"/>
     </row>
-    <row r="5" spans="1:43" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
@@ -2564,7 +2567,7 @@
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
     </row>
-    <row r="6" spans="1:43" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -2594,7 +2597,7 @@
       <c r="AI6" s="23"/>
       <c r="AJ6" s="23"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="59" t="s">
         <v>80</v>
@@ -2617,7 +2620,7 @@
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -2637,7 +2640,7 @@
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -2657,7 +2660,7 @@
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="E10" s="7"/>
       <c r="K10" s="43"/>
@@ -2671,7 +2674,7 @@
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
     </row>
-    <row r="11" spans="1:43" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -2786,20 +2789,23 @@
       <c r="AL11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AN11" s="16" t="s">
+      <c r="AN11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AO11" s="16" t="s">
+      <c r="AO11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" s="16" t="s">
+      <c r="AP11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AQ11" s="16" t="s">
+      <c r="AQ11" s="15" t="s">
         <v>69</v>
       </c>
+      <c r="AR11" s="15" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A13:AM26">
     <sortCondition ref="B13:B26"/>
@@ -2827,10 +2833,10 @@
   <sheetPr codeName="Hoja11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,14 +2865,12 @@
     <col min="36" max="36" width="11.42578125" style="19" customWidth="1"/>
     <col min="37" max="38" width="11.42578125" style="23" customWidth="1"/>
     <col min="39" max="39" width="11.42578125" style="23"/>
-    <col min="40" max="43" width="11.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="0" style="23" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="11.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="40" max="44" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="45" max="46" width="11.42578125" style="23" customWidth="1"/>
     <col min="47" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="54" t="s">
         <v>28</v>
@@ -2897,7 +2901,7 @@
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
     </row>
-    <row r="2" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="56" t="s">
         <v>50</v>
@@ -2928,7 +2932,7 @@
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="58" t="s">
         <v>29</v>
@@ -2960,7 +2964,7 @@
       <c r="AB3" s="44"/>
       <c r="AC3" s="44"/>
     </row>
-    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
@@ -2992,7 +2996,7 @@
       <c r="AB4" s="44"/>
       <c r="AC4" s="44"/>
     </row>
-    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="31"/>
       <c r="C5" s="30"/>
@@ -3022,7 +3026,7 @@
       <c r="AB5" s="44"/>
       <c r="AC5" s="44"/>
     </row>
-    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="31"/>
       <c r="C6" s="30"/>
@@ -3052,7 +3056,7 @@
       <c r="AB6" s="44"/>
       <c r="AC6" s="44"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="59" t="s">
         <v>80</v>
@@ -3084,7 +3088,7 @@
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -3109,7 +3113,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -3134,7 +3138,7 @@
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="E10" s="30"/>
       <c r="K10" s="43"/>
@@ -3157,7 +3161,7 @@
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
     </row>
-    <row r="11" spans="1:43" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3272,20 +3276,23 @@
       <c r="AL11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AN11" s="16" t="s">
+      <c r="AN11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AO11" s="16" t="s">
+      <c r="AO11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" s="16" t="s">
+      <c r="AP11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AQ11" s="16" t="s">
+      <c r="AQ11" s="15" t="s">
         <v>69</v>
       </c>
+      <c r="AR11" s="15" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:H1"/>

--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTA PROCESO OK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -297,7 +297,10 @@
     <t>RET INFONAVIT</t>
   </si>
   <si>
-    <t>TOTAL COSTO SOCIAL</t>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>COSTO SOCIAL REAL</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1134,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1208,7 @@
         <xdr:cNvPr id="4" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1282,7 @@
         <xdr:cNvPr id="5" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1361,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1440,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,10 +2403,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AR1048576"/>
+    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,13 +2435,14 @@
     <col min="35" max="36" width="11.42578125" style="23" customWidth="1"/>
     <col min="37" max="37" width="11.42578125" style="10" customWidth="1"/>
     <col min="38" max="38" width="11.42578125" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="45" max="46" width="11.42578125" customWidth="1"/>
+    <col min="40" max="41" width="11.42578125" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" customWidth="1"/>
+    <col min="43" max="44" width="11.42578125" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="54" t="s">
         <v>28</v>
@@ -2460,7 +2464,7 @@
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
     </row>
-    <row r="2" spans="1:44" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="56" t="s">
         <v>50</v>
@@ -2482,7 +2486,7 @@
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="58" t="s">
         <v>29</v>
@@ -2505,7 +2509,7 @@
       <c r="S3" s="43"/>
       <c r="T3" s="43"/>
     </row>
-    <row r="4" spans="1:44" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -2537,7 +2541,7 @@
       <c r="AI4" s="23"/>
       <c r="AJ4" s="23"/>
     </row>
-    <row r="5" spans="1:44" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
@@ -2567,7 +2571,7 @@
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
     </row>
-    <row r="6" spans="1:44" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -2597,7 +2601,7 @@
       <c r="AI6" s="23"/>
       <c r="AJ6" s="23"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="59" t="s">
         <v>80</v>
@@ -2620,7 +2624,7 @@
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -2640,7 +2644,7 @@
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -2660,7 +2664,7 @@
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="E10" s="7"/>
       <c r="K10" s="43"/>
@@ -2674,7 +2678,7 @@
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
     </row>
-    <row r="11" spans="1:44" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" s="8" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -2801,11 +2805,14 @@
       <c r="AQ11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AR11" s="15" t="s">
+      <c r="AR11" s="16" t="s">
         <v>85</v>
       </c>
+      <c r="AS11" s="18" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A13:AM26">
     <sortCondition ref="B13:B26"/>
@@ -2833,10 +2840,10 @@
   <sheetPr codeName="Hoja11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AR1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,12 +2872,12 @@
     <col min="36" max="36" width="11.42578125" style="19" customWidth="1"/>
     <col min="37" max="38" width="11.42578125" style="23" customWidth="1"/>
     <col min="39" max="39" width="11.42578125" style="23"/>
-    <col min="40" max="44" width="11.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="45" max="46" width="11.42578125" style="23" customWidth="1"/>
+    <col min="40" max="45" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" style="23" customWidth="1"/>
     <col min="47" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="54" t="s">
         <v>28</v>
@@ -2901,7 +2908,7 @@
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
     </row>
-    <row r="2" spans="1:44" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="56" t="s">
         <v>50</v>
@@ -2932,7 +2939,7 @@
       <c r="AB2" s="44"/>
       <c r="AC2" s="44"/>
     </row>
-    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="58" t="s">
         <v>29</v>
@@ -2964,7 +2971,7 @@
       <c r="AB3" s="44"/>
       <c r="AC3" s="44"/>
     </row>
-    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
@@ -2996,7 +3003,7 @@
       <c r="AB4" s="44"/>
       <c r="AC4" s="44"/>
     </row>
-    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="31"/>
       <c r="C5" s="30"/>
@@ -3026,7 +3033,7 @@
       <c r="AB5" s="44"/>
       <c r="AC5" s="44"/>
     </row>
-    <row r="6" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="31"/>
       <c r="C6" s="30"/>
@@ -3056,7 +3063,7 @@
       <c r="AB6" s="44"/>
       <c r="AC6" s="44"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="59" t="s">
         <v>80</v>
@@ -3088,7 +3095,7 @@
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -3113,7 +3120,7 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
         <v>52</v>
@@ -3138,7 +3145,7 @@
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="E10" s="30"/>
       <c r="K10" s="43"/>
@@ -3161,7 +3168,7 @@
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
     </row>
-    <row r="11" spans="1:44" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
@@ -3288,11 +3295,14 @@
       <c r="AQ11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AR11" s="15" t="s">
+      <c r="AR11" s="16" t="s">
         <v>85</v>
       </c>
+      <c r="AS11" s="18" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:H1"/>

--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42570" windowHeight="6285" tabRatio="620"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTA PROCESO OK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>COSTO SOCIAL REAL</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -873,6 +876,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="25" fillId="10" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,7 +1066,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1140,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1214,7 @@
         <xdr:cNvPr id="4" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1288,7 @@
         <xdr:cNvPr id="5" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1367,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1446,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,13 +1888,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="W11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,15 +1924,15 @@
     <col min="30" max="30" width="12.85546875" style="23" customWidth="1"/>
     <col min="31" max="31" width="13.140625" style="23" customWidth="1"/>
     <col min="32" max="32" width="13.85546875" style="23" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="23" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="23" customWidth="1"/>
-    <col min="35" max="37" width="11.42578125" style="23"/>
-    <col min="38" max="38" width="11.42578125" style="19"/>
-    <col min="39" max="39" width="16" style="19" customWidth="1"/>
-    <col min="40" max="16384" width="11.42578125" style="23"/>
+    <col min="33" max="34" width="12.28515625" style="23" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" style="23" customWidth="1"/>
+    <col min="36" max="38" width="11.42578125" style="23"/>
+    <col min="39" max="39" width="11.42578125" style="19"/>
+    <col min="40" max="40" width="16" style="19" customWidth="1"/>
+    <col min="41" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1966,8 +1972,9 @@
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2005,8 +2012,9 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2044,8 +2052,9 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2083,8 +2092,9 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2122,8 +2132,9 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2161,8 +2172,9 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2200,8 +2212,9 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
@@ -2239,8 +2252,9 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -2312,19 +2326,19 @@
       <c r="Y9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="50" t="s">
+      <c r="Z9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="46" t="s">
+      <c r="AA9" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="46" t="s">
+      <c r="AB9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AC9" s="52" t="s">
+      <c r="AC9" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AD9" s="48" t="s">
+      <c r="AD9" s="49" t="s">
         <v>82</v>
       </c>
       <c r="AE9" s="37" t="s">
@@ -2332,17 +2346,20 @@
       </c>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="37" t="s">
+      <c r="AH9" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AJ9" s="39" t="s">
+      <c r="AK9" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AK9" s="36" t="s">
+      <c r="AL9" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -2368,11 +2385,11 @@
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="49"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="50"/>
       <c r="AE10" s="37"/>
       <c r="AF10" s="37" t="s">
         <v>2</v>
@@ -2380,9 +2397,10 @@
       <c r="AG10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="37"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="36"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="37"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2444,15 +2462,15 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -2466,15 +2484,15 @@
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -2488,15 +2506,15 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="11"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
@@ -2513,10 +2531,10 @@
       <c r="A4" s="43"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="12"/>
       <c r="G4" s="22"/>
       <c r="H4" s="12"/>
@@ -2603,15 +2621,15 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="11"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
@@ -2842,7 +2860,7 @@
   </sheetPr>
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
@@ -2879,15 +2897,15 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -2910,15 +2928,15 @@
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -2941,15 +2959,15 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="11"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
@@ -2975,10 +2993,10 @@
       <c r="A4" s="43"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -3065,15 +3083,15 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="11"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
@@ -3438,40 +3456,40 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
     </row>
   </sheetData>
   <sortState ref="B43:N65">

--- a/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominasprocesos.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>TRABAJADOR</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>CUENTA</t>
-  </si>
-  <si>
-    <t>% COMISION</t>
   </si>
   <si>
     <t>SUELDO ORDINARIO NETO</t>
@@ -304,6 +301,12 @@
   </si>
   <si>
     <t>RETENCION 6%</t>
+  </si>
+  <si>
+    <t>% COMISION SA</t>
+  </si>
+  <si>
+    <t>% COMISION ASIM</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,6 +879,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,7 +1072,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1146,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1220,7 @@
         <xdr:cNvPr id="4" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1294,7 @@
         <xdr:cNvPr id="5" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1373,7 @@
         <xdr:cNvPr id="3" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1452,7 @@
         <xdr:cNvPr id="2" name="2 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,10 +1897,10 @@
   <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="W11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,8 +1922,7 @@
     <col min="18" max="18" width="5.28515625" style="23" customWidth="1"/>
     <col min="19" max="19" width="13.85546875" style="23" customWidth="1"/>
     <col min="20" max="21" width="15.42578125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="23" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="23" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" style="23" customWidth="1"/>
     <col min="25" max="28" width="15.42578125" style="23" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" style="23" customWidth="1"/>
@@ -2265,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>4</v>
@@ -2274,72 +2279,74 @@
         <v>5</v>
       </c>
       <c r="G9" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>72</v>
-      </c>
       <c r="I9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>60</v>
-      </c>
       <c r="K9" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="37" t="s">
-        <v>78</v>
-      </c>
       <c r="Q9" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" s="38"/>
       <c r="S9" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="V9" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="37" t="s">
-        <v>58</v>
-      </c>
       <c r="Y9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AA9" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD9" s="49" t="s">
-        <v>82</v>
+      <c r="AD9" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="AE9" s="37" t="s">
         <v>1</v>
@@ -2347,16 +2354,16 @@
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI9" s="37" t="s">
         <v>7</v>
       </c>
       <c r="AK9" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL9" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2385,11 +2392,11 @@
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="50"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="51"/>
       <c r="AE10" s="37"/>
       <c r="AF10" s="37" t="s">
         <v>2</v>
@@ -2462,15 +2469,15 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -2484,15 +2491,15 @@
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="B2" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -2506,15 +2513,15 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="11"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
@@ -2531,10 +2538,10 @@
       <c r="A4" s="43"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="62"/>
+      <c r="D4" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="63"/>
       <c r="F4" s="12"/>
       <c r="G4" s="22"/>
       <c r="H4" s="12"/>
@@ -2621,15 +2628,15 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
-      <c r="B7" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="11"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
@@ -2645,7 +2652,7 @@
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
@@ -2665,7 +2672,7 @@
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
@@ -2707,7 +2714,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>12</v>
@@ -2716,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>30</v>
@@ -2758,19 +2765,19 @@
         <v>22</v>
       </c>
       <c r="U11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="W11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="X11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="Y11" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="Y11" s="35" t="s">
-        <v>49</v>
       </c>
       <c r="Z11" s="16" t="s">
         <v>23</v>
@@ -2779,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>25</v>
@@ -2788,22 +2795,22 @@
         <v>26</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ11" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="AK11" s="16" t="s">
         <v>32</v>
@@ -2815,19 +2822,19 @@
         <v>26</v>
       </c>
       <c r="AO11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ11" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="AR11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS11" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="AS11" s="18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2897,15 +2904,15 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -2928,15 +2935,15 @@
     </row>
     <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="B2" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -2959,15 +2966,15 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="11"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
@@ -2993,10 +3000,10 @@
       <c r="A4" s="43"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="62"/>
+      <c r="D4" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="63"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -3083,15 +3090,15 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
-      <c r="B7" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="11"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
@@ -3116,7 +3123,7 @@
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
@@ -3141,7 +3148,7 @@
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
@@ -3197,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>12</v>
@@ -3206,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>30</v>
@@ -3248,19 +3255,19 @@
         <v>22</v>
       </c>
       <c r="U11" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="33" t="s">
+      <c r="W11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="33" t="s">
+      <c r="X11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="33" t="s">
+      <c r="Y11" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="Y11" s="33" t="s">
-        <v>49</v>
       </c>
       <c r="Z11" s="33" t="s">
         <v>23</v>
@@ -3269,7 +3276,7 @@
         <v>24</v>
       </c>
       <c r="AB11" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC11" s="32" t="s">
         <v>25</v>
@@ -3278,22 +3285,22 @@
         <v>26</v>
       </c>
       <c r="AE11" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF11" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH11" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="AJ11" s="32" t="s">
-        <v>74</v>
       </c>
       <c r="AK11" s="16" t="s">
         <v>32</v>
@@ -3305,19 +3312,19 @@
         <v>26</v>
       </c>
       <c r="AO11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ11" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="AR11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS11" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="AS11" s="18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3365,19 +3372,19 @@
   <sheetData>
     <row r="1" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>15</v>
@@ -3389,10 +3396,10 @@
         <v>35</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>13</v>
@@ -3456,40 +3463,40 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="63" t="s">
+      <c r="G6" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="64" t="s">
         <v>53</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
     </row>
   </sheetData>
   <sortState ref="B43:N65">
